--- a/fix_type_global.xlsx
+++ b/fix_type_global.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCOOK\Documents\Google Drive\Math\UN project\UN-Data-Mapping-copy\Network Project - Cook\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne's  PC\Documents\Academic Positions\Tarleton State\2019\Summer 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C3A719-1D48-489A-AE04-A0AB1EE5F8C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ent_type.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>academic</t>
   </si>
@@ -130,12 +138,18 @@
   </si>
   <si>
     <t>new type</t>
+  </si>
+  <si>
+    <t>un entity</t>
+  </si>
+  <si>
+    <t>academic sector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -479,22 +493,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -502,7 +516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -518,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -526,7 +540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -534,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -542,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,185 +564,201 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>34</v>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B30">
-    <sortCondition ref="A2:A30"/>
+  <sortState ref="A2:B31">
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
